--- a/AttendanceLog.xlsx
+++ b/AttendanceLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Newcastle\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F62924-428A-4195-98F8-3AEC8C793F9A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A75489-2466-459E-ABF2-C717F7261D5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +544,9 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/AttendanceLog.xlsx
+++ b/AttendanceLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A75489-2466-459E-ABF2-C717F7261D5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0501427C-E1C6-4825-AF7C-4594012DCE80}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +560,9 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/AttendanceLog.xlsx
+++ b/AttendanceLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0501427C-E1C6-4825-AF7C-4594012DCE80}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B390DC-5014-42F5-BA67-8A2EA777FAE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +568,9 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/AttendanceLog.xlsx
+++ b/AttendanceLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B390DC-5014-42F5-BA67-8A2EA777FAE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249F2163-E213-436C-92E8-8F0DC5D409D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +576,16 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/AttendanceLog.xlsx
+++ b/AttendanceLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249F2163-E213-436C-92E8-8F0DC5D409D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD069EFC-255E-4AC2-AAB5-2ABB69004CA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -500,17 +500,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -532,7 +532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -540,7 +540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -548,7 +548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -556,7 +556,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -564,7 +564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -572,7 +572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -588,7 +588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -596,7 +596,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -604,52 +604,55 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -657,23 +660,23 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>

--- a/AttendanceLog.xlsx
+++ b/AttendanceLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD069EFC-255E-4AC2-AAB5-2ABB69004CA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FCC665-4733-443B-A66F-7BADDC7830A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:D21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,6 +616,9 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">

--- a/AttendanceLog.xlsx
+++ b/AttendanceLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FCC665-4733-443B-A66F-7BADDC7830A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D62A40-ED4E-4F52-8417-2076E2E2A333}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +624,9 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">

--- a/AttendanceLog.xlsx
+++ b/AttendanceLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D62A40-ED4E-4F52-8417-2076E2E2A333}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76493EA-1C57-47A8-AAA5-0D15AAA9188C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,30 +632,48 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
